--- a/Calc/Prices_calc.xlsx
+++ b/Calc/Prices_calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliff\OneDrive\Documents\GenAtomic\Optimize\Calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D114B7-B4AF-4D0C-9714-0E889DE64CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C7D40A-7CB9-463F-9F35-21E3D4836E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="16637" windowHeight="9437" activeTab="1" xr2:uid="{738DFCFF-3A0D-4B61-9084-C2C50E31EE06}"/>
   </bookViews>
@@ -20,23 +20,23 @@
     <sheet name="Fixed Charge Factor" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="Capital_Battery">CSV!$I$3</definedName>
     <definedName name="Capital_Coal">CSV!$H$3</definedName>
     <definedName name="Capital_Gas">CSV!$G$3</definedName>
     <definedName name="Capital_Nuclear">CSV!$F$3</definedName>
     <definedName name="Capital_Solar">CSV!$D$3</definedName>
-    <definedName name="Capital_Storage">CSV!$I$3</definedName>
     <definedName name="Capital_Wind">CSV!$E$3</definedName>
+    <definedName name="Fixed_Battery">CSV!$I$5</definedName>
     <definedName name="Fixed_Coal">CSV!$H$5</definedName>
     <definedName name="Fixed_Gas">CSV!$G$5</definedName>
     <definedName name="Fixed_Nuclear">CSV!$F$5</definedName>
     <definedName name="Fixed_Solar">CSV!$D$5</definedName>
-    <definedName name="Fixed_Storage">CSV!$I$5</definedName>
     <definedName name="Fixed_Wind">CSV!$E$5</definedName>
+    <definedName name="Variable_Battery">CSV!$I$7</definedName>
     <definedName name="Variable_Coal">CSV!$H$7</definedName>
     <definedName name="Variable_Gas">CSV!$G$7</definedName>
     <definedName name="Variable_Nuclear">CSV!$F$7</definedName>
     <definedName name="Variable_Solar">CSV!$D$7</definedName>
-    <definedName name="Variable_Storage">CSV!$I$7</definedName>
     <definedName name="Variable_Wind">CSV!$E$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>https://www.eia.gov/outlooks/aeo/electricity_generation/xls/AEO2023_LCOE-LCOS-LACE_figures.xlsx</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>Variable Cost ($/MWh)</t>
+  </si>
+  <si>
+    <t>Battery</t>
   </si>
 </sst>
 </file>
@@ -848,9 +851,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -888,7 +891,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -994,7 +997,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1136,7 +1139,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2033,7 +2036,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.85"/>
@@ -2069,7 +2072,7 @@
         <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.85">
@@ -2095,7 +2098,7 @@
       </c>
       <c r="I2" t="str">
         <f t="shared" si="0"/>
-        <v>Capital_Storage</v>
+        <v>Capital_Battery</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.85">
@@ -2156,7 +2159,7 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
-        <v>Fixed_Storage</v>
+        <v>Fixed_Battery</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.85">
@@ -2217,7 +2220,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6" si="6">$C7 &amp; "_" &amp; I$1</f>
-        <v>Variable_Storage</v>
+        <v>Variable_Battery</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.85">
